--- a/input/prompts.xlsx
+++ b/input/prompts.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasusser/Desktop/govAI research/impact measurement/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasusser/Desktop/govAI research/impact measurement/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94FF44AF-570D-B643-B123-1BC32FEF92F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD12313D-6EDF-374E-99D6-38F127EA4158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="15800" xr2:uid="{4DC26015-E1B4-EC46-99E7-3CEEE6B1DE44}"/>
+    <workbookView xWindow="-80" yWindow="520" windowWidth="28040" windowHeight="15800" xr2:uid="{4DC26015-E1B4-EC46-99E7-3CEEE6B1DE44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,24 +35,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Prompt</t>
   </si>
   <si>
-    <t>Please perform this for me as {work_description}</t>
-  </si>
-  <si>
-    <t>Give a list of the subtasks that you can do: {task}. Respond in concise 100 words in numbered list of max 3.</t>
-  </si>
-  <si>
-    <t>Given that I am a {occupation} generate subtasks for: {task}. Respond in concise 100 words in numbered list of max 3.</t>
-  </si>
-  <si>
-    <t>Pretend to be a {occupation} that is doing task where I {real world subtask}. Write about what your job would be in 100 words. For example, if I were a teacher, please write "I am a middle school teacher. I need to make sure that for every lesson and student project there are clear learning objectives that can be communicated to my students. Can you please help me do this for my next lesson on Malcolm X’s role in the civil rights movement?"</t>
-  </si>
-  <si>
-    <t>What is a very specific real world example of {occupation}'s {subtask}?</t>
+    <t>For each subtask:</t>
+  </si>
+  <si>
+    <t>subtask1</t>
+  </si>
+  <si>
+    <t>subtask2</t>
+  </si>
+  <si>
+    <t>situation</t>
+  </si>
+  <si>
+    <t>Now, as a {occupation}, I am faced with the following siutation. {situation}. Perform the subtask: {subtask2}</t>
+  </si>
+  <si>
+    <t>Now, given that I am a {occupation}, what are the subtasks of {subtask}? Respond in concise 100 words in numbered list of max 3.</t>
+  </si>
+  <si>
+    <t>Given that I am a {occupation} generate subtasks for: {task}. Respond in concise in numbered list of max 3 with only three words per bullet point.</t>
+  </si>
+  <si>
+    <t>Generate a very real world context where a {occupation} would have to do tasks of {subtask1}? Give a 75 word overview of the context of situation.</t>
+  </si>
+  <si>
+    <t>Output</t>
   </si>
 </sst>
 </file>
@@ -407,46 +419,60 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25BD773-1883-EF4C-B2DF-F3E89374ACDD}">
-  <dimension ref="B1:B6"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="38.5" customWidth="1"/>
     <col min="2" max="2" width="128.33203125" customWidth="1"/>
     <col min="3" max="3" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+    <row r="5" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="2:2" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B6" t="s">
-        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/input/prompts.xlsx
+++ b/input/prompts.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasusser/Desktop/govAI research/impact measurement/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD12313D-6EDF-374E-99D6-38F127EA4158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDC2B21-EDA6-B64C-B4E2-FF8E9EEBC391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-80" yWindow="520" windowWidth="28040" windowHeight="15800" xr2:uid="{4DC26015-E1B4-EC46-99E7-3CEEE6B1DE44}"/>
+    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="15800" xr2:uid="{4DC26015-E1B4-EC46-99E7-3CEEE6B1DE44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -46,25 +46,26 @@
     <t>subtask1</t>
   </si>
   <si>
-    <t>subtask2</t>
-  </si>
-  <si>
     <t>situation</t>
   </si>
   <si>
-    <t>Now, as a {occupation}, I am faced with the following siutation. {situation}. Perform the subtask: {subtask2}</t>
-  </si>
-  <si>
-    <t>Now, given that I am a {occupation}, what are the subtasks of {subtask}? Respond in concise 100 words in numbered list of max 3.</t>
-  </si>
-  <si>
-    <t>Given that I am a {occupation} generate subtasks for: {task}. Respond in concise in numbered list of max 3 with only three words per bullet point.</t>
-  </si>
-  <si>
-    <t>Generate a very real world context where a {occupation} would have to do tasks of {subtask1}? Give a 75 word overview of the context of situation.</t>
-  </si>
-  <si>
     <t>Output</t>
+  </si>
+  <si>
+    <t>Given that I am a {occupation}, generate subtasks for: {task}. Respond in concise in numbered list of max 3 with only three words per bullet point.</t>
+  </si>
+  <si>
+    <t>I am an {occupation} and I have to {subtask1}. Give three 15 word overview of a different company/client/case I might have.</t>
+  </si>
+  <si>
+    <t>For each situation:</t>
+  </si>
+  <si>
+    <t>Now, I am an {occupation}. I am currently working for {context}. Make an {output} in 1000 words</t>
+  </si>
+  <si>
+    <t>I am an {occupation}, what are the outputs for this {subtask}. I am working on {context}.
+Give 3 steps and ouputs in 10 words each.</t>
   </si>
 </sst>
 </file>
@@ -100,10 +101,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -422,7 +426,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -437,12 +441,12 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -453,18 +457,18 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.2">
@@ -472,7 +476,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/input/prompts.xlsx
+++ b/input/prompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasusser/Desktop/govAI research/impact measurement/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEDC2B21-EDA6-B64C-B4E2-FF8E9EEBC391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6F8ADA-6422-C545-913F-F3E173BC77A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="15800" xr2:uid="{4DC26015-E1B4-EC46-99E7-3CEEE6B1DE44}"/>
   </bookViews>
@@ -55,9 +55,6 @@
     <t>Given that I am a {occupation}, generate subtasks for: {task}. Respond in concise in numbered list of max 3 with only three words per bullet point.</t>
   </si>
   <si>
-    <t>I am an {occupation} and I have to {subtask1}. Give three 15 word overview of a different company/client/case I might have.</t>
-  </si>
-  <si>
     <t>For each situation:</t>
   </si>
   <si>
@@ -66,6 +63,9 @@
   <si>
     <t>I am an {occupation}, what are the outputs for this {subtask}. I am working on {context}.
 Give 3 steps and ouputs in 10 words each.</t>
+  </si>
+  <si>
+    <t>I am an {occupation} and I have to {subtask1}. Give three 15 word overviews of a different company/client/case I might have.</t>
   </si>
 </sst>
 </file>
@@ -457,7 +457,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
         <v>3</v>
@@ -465,10 +465,10 @@
     </row>
     <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.2">
@@ -476,7 +476,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/input/prompts.xlsx
+++ b/input/prompts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasusser/Desktop/govAI research/impact measurement/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD6F8ADA-6422-C545-913F-F3E173BC77A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB7CEE3-0B20-6044-A7ED-7DC24BBF12F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="500" windowWidth="25380" windowHeight="15800" xr2:uid="{4DC26015-E1B4-EC46-99E7-3CEEE6B1DE44}"/>
+    <workbookView xWindow="320" yWindow="500" windowWidth="25380" windowHeight="15800" xr2:uid="{4DC26015-E1B4-EC46-99E7-3CEEE6B1DE44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Prompt</t>
   </si>
@@ -50,12 +50,6 @@
   </si>
   <si>
     <t>Output</t>
-  </si>
-  <si>
-    <t>Given that I am a {occupation}, generate subtasks for: {task}. Respond in concise in numbered list of max 3 with only three words per bullet point.</t>
-  </si>
-  <si>
-    <t>For each situation:</t>
   </si>
   <si>
     <t>Now, I am an {occupation}. I am currently working for {context}. Make an {output} in 1000 words</t>
@@ -65,7 +59,19 @@
 Give 3 steps and ouputs in 10 words each.</t>
   </si>
   <si>
-    <t>I am an {occupation} and I have to {subtask1}. Give three 15 word overviews of a different company/client/case I might have.</t>
+    <t>Go through situations:</t>
+  </si>
+  <si>
+    <t>Go through step by step subtasks:</t>
+  </si>
+  <si>
+    <t>I am an {occupation} and I have to {task}. Give three 15 word overviews of a different company/client/case/project I might have.</t>
+  </si>
+  <si>
+    <t>Go through tasks</t>
+  </si>
+  <si>
+    <t>Given that I am a {occupation}, generate subtasks for: {task} sequentially. Respond in concise in numbered list of max 3 with only three words per bullet point.</t>
   </si>
 </sst>
 </file>
@@ -426,13 +432,13 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.5" customWidth="1"/>
-    <col min="2" max="2" width="128.33203125" customWidth="1"/>
+    <col min="2" max="2" width="140.83203125" customWidth="1"/>
     <col min="3" max="3" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -444,31 +450,34 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.2">
@@ -476,7 +485,7 @@
         <v>1</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/input/prompts.xlsx
+++ b/input/prompts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasusser/Desktop/govAI research/impact measurement/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFB7CEE3-0B20-6044-A7ED-7DC24BBF12F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405C652B-32A8-7345-81C4-569421ABB38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="320" yWindow="500" windowWidth="25380" windowHeight="15800" xr2:uid="{4DC26015-E1B4-EC46-99E7-3CEEE6B1DE44}"/>
+    <workbookView xWindow="900" yWindow="3240" windowWidth="25380" windowHeight="15800" xr2:uid="{4DC26015-E1B4-EC46-99E7-3CEEE6B1DE44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,14 +35,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Prompt</t>
   </si>
   <si>
-    <t>For each subtask:</t>
-  </si>
-  <si>
     <t>subtask1</t>
   </si>
   <si>
@@ -52,26 +49,47 @@
     <t>Output</t>
   </si>
   <si>
-    <t>Now, I am an {occupation}. I am currently working for {context}. Make an {output} in 1000 words</t>
-  </si>
-  <si>
-    <t>I am an {occupation}, what are the outputs for this {subtask}. I am working on {context}.
-Give 3 steps and ouputs in 10 words each.</t>
-  </si>
-  <si>
     <t>Go through situations:</t>
   </si>
   <si>
     <t>Go through step by step subtasks:</t>
   </si>
   <si>
-    <t>I am an {occupation} and I have to {task}. Give three 15 word overviews of a different company/client/case/project I might have.</t>
-  </si>
-  <si>
     <t>Go through tasks</t>
   </si>
   <si>
-    <t>Given that I am a {occupation}, generate subtasks for: {task} sequentially. Respond in concise in numbered list of max 3 with only three words per bullet point.</t>
+    <t>output</t>
+  </si>
+  <si>
+    <t>For each subtask, output, situation:</t>
+  </si>
+  <si>
+    <t>I am an {occupation} and I have to {task}. Give a company/client/case/project I might have.</t>
+  </si>
+  <si>
+    <t>Respond in numbered list with max 3 bullet points with max 15 words.</t>
+  </si>
+  <si>
+    <t>Specifications</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> I am a {occupation}, what are the subtasks that I need to complete sequentially to perform {task}? </t>
+  </si>
+  <si>
+    <t>Give a numbered list with only one sentence words per bullet point with maximum of 5 bullets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I am an {occupation}, I am working on {context} and today, I need to finish {subtask}.  What are the possible outputs I will produce?
+</t>
+  </si>
+  <si>
+    <t>Give 3 outputs in 10 words each.</t>
+  </si>
+  <si>
+    <t>I am an {occupation}, I am working on {context} and today, I need to complete {subtask1}. Make an {output} .</t>
+  </si>
+  <si>
+    <t>Use 1000 words.</t>
   </si>
 </sst>
 </file>
@@ -429,63 +447,82 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25BD773-1883-EF4C-B2DF-F3E89374ACDD}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.5" customWidth="1"/>
     <col min="2" max="2" width="140.83203125" customWidth="1"/>
-    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="3" max="3" width="42.5" customWidth="1"/>
+    <col min="4" max="4" width="32.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>4</v>
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" ht="74" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="34" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>2</v>
-      </c>
     </row>
-    <row r="4" spans="1:3" ht="34" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="5" spans="1:4" ht="102" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="102" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/input/prompts.xlsx
+++ b/input/prompts.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasusser/Desktop/govAI research/impact measurement/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405C652B-32A8-7345-81C4-569421ABB38E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CCCDD7-3052-E942-BC92-A1A48D9609C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="900" yWindow="3240" windowWidth="25380" windowHeight="15800" xr2:uid="{4DC26015-E1B4-EC46-99E7-3CEEE6B1DE44}"/>
+    <workbookView xWindow="900" yWindow="500" windowWidth="25380" windowHeight="15800" xr2:uid="{4DC26015-E1B4-EC46-99E7-3CEEE6B1DE44}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,10 +86,10 @@
     <t>Give 3 outputs in 10 words each.</t>
   </si>
   <si>
-    <t>I am an {occupation}, I am working on {context} and today, I need to complete {subtask1}. Make an {output} .</t>
-  </si>
-  <si>
     <t>Use 1000 words.</t>
+  </si>
+  <si>
+    <t>I am an {occupation}, I am working on {context} and today, I need to complete {subtask}. Make an {output} .</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -519,10 +519,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
         <v>16</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/input/prompts.xlsx
+++ b/input/prompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasusser/Desktop/govAI research/impact measurement/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47CCCDD7-3052-E942-BC92-A1A48D9609C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B31746-6744-2A4D-9211-1226658FDF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="25380" windowHeight="15800" xr2:uid="{4DC26015-E1B4-EC46-99E7-3CEEE6B1DE44}"/>
   </bookViews>
@@ -67,9 +67,6 @@
     <t>I am an {occupation} and I have to {task}. Give a company/client/case/project I might have.</t>
   </si>
   <si>
-    <t>Respond in numbered list with max 3 bullet points with max 15 words.</t>
-  </si>
-  <si>
     <t>Specifications</t>
   </si>
   <si>
@@ -90,6 +87,9 @@
   </si>
   <si>
     <t>I am an {occupation}, I am working on {context} and today, I need to complete {subtask}. Make an {output} .</t>
+  </si>
+  <si>
+    <t>Respond in numbered list with max 15 words each.</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,7 +466,7 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D1" t="s">
         <v>3</v>
@@ -480,7 +480,7 @@
         <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="D2" t="s">
         <v>2</v>
@@ -491,10 +491,10 @@
         <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
         <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
@@ -505,10 +505,10 @@
         <v>5</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
         <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -519,10 +519,10 @@
         <v>8</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/input/prompts.xlsx
+++ b/input/prompts.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/juliasusser/Desktop/govAI research/impact measurement/input/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44B31746-6744-2A4D-9211-1226658FDF6A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78CC643A-942F-6D4E-ACEB-E2975ED76491}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="900" yWindow="500" windowWidth="25380" windowHeight="15800" xr2:uid="{4DC26015-E1B4-EC46-99E7-3CEEE6B1DE44}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Prompt</t>
   </si>
@@ -90,6 +90,15 @@
   </si>
   <si>
     <t>Respond in numbered list with max 15 words each.</t>
+  </si>
+  <si>
+    <t>How well do you think you did at automating task {subtask}?</t>
+  </si>
+  <si>
+    <t>What percent of the task {subtask} did you automate?</t>
+  </si>
+  <si>
+    <t>Give number.</t>
   </si>
 </sst>
 </file>
@@ -447,10 +456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C25BD773-1883-EF4C-B2DF-F3E89374ACDD}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,6 +534,19 @@
         <v>15</v>
       </c>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
